--- a/biology/Médecine/1120_en_santé_et_médecine/1120_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1120_en_santé_et_médecine/1120_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1120_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1120_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1120 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1120_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1120_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Vers 1120 :
-Fondation à Aubrac, sur le plateau du même nom, dans le Massif central, d'un hôpital pour les pèlerins et les voyageurs[2].
-Fondation abbatiale de deux léproseries, l'une à Péronne en Santerre, l'autre à Saint-Quentin en Vermandois[3].
-Fondation de la léproserie d'Entresaix, à Yenne, en Savoie, par Guigues Ier, prieur de la Grande Chartreuse[4].
-À l'emplacement de l'actuel village de L'Hôpital-Saint-Blaise, sur le chemin de Saint-Jacques, fondation de l'hôpital de la Miséricorde[5].</t>
+Fondation à Aubrac, sur le plateau du même nom, dans le Massif central, d'un hôpital pour les pèlerins et les voyageurs.
+Fondation abbatiale de deux léproseries, l'une à Péronne en Santerre, l'autre à Saint-Quentin en Vermandois.
+Fondation de la léproserie d'Entresaix, à Yenne, en Savoie, par Guigues Ier, prieur de la Grande Chartreuse.
+À l'emplacement de l'actuel village de L'Hôpital-Saint-Blaise, sur le chemin de Saint-Jacques, fondation de l'hôpital de la Miséricorde.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1120_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1120_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Humbaud, archevêque de Lyon, excommunie tous les insectes de son diocèse, leur pullulement étant tenu, comme celui des rats, pour un présage de peste[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Humbaud, archevêque de Lyon, excommunie tous les insectes de son diocèse, leur pullulement étant tenu, comme celui des rats, pour un présage de peste.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1120_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1120_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Guillaume, médecin laïque, qui assiste au testament de Pierre, seigneur de Chemillé, en Anjou[7].
-Vers 1120 : fl. Robert, médecin, cité dans une charte de Frédéric de Châtillon en faveur du prieuré de  Longpont, en Île-de-France[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Guillaume, médecin laïque, qui assiste au testament de Pierre, seigneur de Chemillé, en Anjou.
+Vers 1120 : fl. Robert, médecin, cité dans une charte de Frédéric de Châtillon en faveur du prieuré de  Longpont, en Île-de-France.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1120_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1120_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,12 +624,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Liu Wansu (mort en 1200), médecin chinois, fondateur de l'« école du froid et du frais[9] ».
-1120, 1118 ou 1110 : Mkhitar de Her (mort en 1200), médecin, physiologiste et astronome, généralement considéré comme « le père de la médecine classique en  Arménie[10],[11] ».
-Vers 1120 : Matthaeus Platearius (mort en 1161), médecin de Salerne, auteur d'un De medicinis simplicibus (« Livre des simples médecines ») où il « décrit 273 remèdes, essentiellement issus du monde végétal », et qui est « une date dans l'histoire de la botanique (et de la pharmacie[12]) ».
-Entre 1120 et 1125 : Jayavarman VII (mort en 1218), roi bouddhiste de l'Empire khmer, au cours du règne duquel « de nombreuses stèles de fondation d'hôpital attestent du développement de la médecine ayurveda[13] ».</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liu Wansu (mort en 1200), médecin chinois, fondateur de l'« école du froid et du frais ».
+1120, 1118 ou 1110 : Mkhitar de Her (mort en 1200), médecin, physiologiste et astronome, généralement considéré comme « le père de la médecine classique en  Arménie, ».
+Vers 1120 : Matthaeus Platearius (mort en 1161), médecin de Salerne, auteur d'un De medicinis simplicibus (« Livre des simples médecines ») où il « décrit 273 remèdes, essentiellement issus du monde végétal », et qui est « une date dans l'histoire de la botanique (et de la pharmacie) ».
+Entre 1120 et 1125 : Jayavarman VII (mort en 1218), roi bouddhiste de l'Empire khmer, au cours du règne duquel « de nombreuses stèles de fondation d'hôpital attestent du développement de la médecine ayurveda ».</t>
         </is>
       </c>
     </row>
